--- a/bin/Debug/InputFiles/Data Matrix.xlsx
+++ b/bin/Debug/InputFiles/Data Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\GLM\DatamatrixCode\DatamatrixCode\bin\Release\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\GLM\DatamatrixCode\DatamatrixCode\bin\Debug\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4470A4-4045-4557-8FDC-2D37B8FB38A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F009F-727B-4226-9652-937CA2F9FE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,8 @@
         <v>251201</v>
       </c>
       <c r="D2" s="2">
-        <v>1234</v>
+        <f t="shared" ref="D2:D64" ca="1" si="0">RANDBETWEEN(1000000000000,99999999999999)</f>
+        <v>14505321929181</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -461,8 +462,8 @@
         <v>251201</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D2:D64" ca="1" si="0">RANDBETWEEN(1000000000000,99999999999999)</f>
-        <v>12519547816224</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18640275950430</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -477,7 +478,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43619018636833</v>
+        <v>50942076876334</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -492,7 +493,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57926887570897</v>
+        <v>60310999205998</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>5</v>
@@ -511,7 +512,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80560195170810</v>
+        <v>71052894300268</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -528,7 +529,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>70606979521593</v>
+        <v>21960722728009</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -545,7 +546,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41675709198671</v>
+        <v>79927039616623</v>
       </c>
       <c r="K8" s="1">
         <v>232</v>
@@ -566,7 +567,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43484304596522</v>
+        <v>58852664056053</v>
       </c>
       <c r="K9" s="1">
         <v>29</v>
@@ -587,7 +588,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>68511519351377</v>
+        <v>90365362796800</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -602,7 +603,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>70537215895010</v>
+        <v>21179933758457</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -617,7 +618,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9556231325151</v>
+        <v>20804552721497</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -632,7 +633,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56401284075569</v>
+        <v>60758215416660</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -647,7 +648,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33514332543224</v>
+        <v>14696694477430</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -662,7 +663,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28151798811082</v>
+        <v>71890697582575</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -677,7 +678,7 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45900103572981</v>
+        <v>77743315354747</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,7 +693,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35932080205584</v>
+        <v>93433502919636</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +708,7 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59034465644927</v>
+        <v>50322773762982</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +722,8 @@
         <v>251201</v>
       </c>
       <c r="D19" s="2">
-        <v>1234</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>66133216079347</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,7 +738,7 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>69597619441373</v>
+        <v>67576533134286</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +753,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84015676248514</v>
+        <v>48688934959183</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +768,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90577635154819</v>
+        <v>88257315850569</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,7 +783,7 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56215309345557</v>
+        <v>76332360144299</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,7 +798,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19472372145102</v>
+        <v>20500928685032</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -811,7 +813,7 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16322304337777</v>
+        <v>7243103601120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +828,7 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36738433105704</v>
+        <v>28338746227645</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,7 +843,7 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94450855002221</v>
+        <v>15350163905298</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,7 +858,7 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40866414667546</v>
+        <v>86619676134806</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +872,8 @@
         <v>251201</v>
       </c>
       <c r="D29" s="2">
-        <v>1234</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46232826597789</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +888,7 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22637534014272</v>
+        <v>77802572869845</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,7 +903,7 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42832184652514</v>
+        <v>85211861351312</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,7 +918,7 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>58663488544733</v>
+        <v>57694172622235</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -930,7 +933,7 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18207976575184</v>
+        <v>41909168057684</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,7 +948,7 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>50878287531051</v>
+        <v>85546507998018</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,7 +963,7 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57791728265162</v>
+        <v>31753429498082</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,7 +978,7 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65421651493218</v>
+        <v>21812496874206</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,7 +993,7 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60690459240774</v>
+        <v>74236736623132</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,7 +1008,7 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11198402220087</v>
+        <v>26697697782820</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,7 +1023,7 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14370614174937</v>
+        <v>1754787870996</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,7 +1038,7 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>61857223997720</v>
+        <v>57079966545423</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,7 +1053,7 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4084361245701</v>
+        <v>73917278748824</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1068,7 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7951709596448</v>
+        <v>83683506109208</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,7 +1083,7 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>82576517241809</v>
+        <v>85656328381899</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,7 +1098,7 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47344401113443</v>
+        <v>65366689200572</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,7 +1113,7 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93084678267178</v>
+        <v>69027434570580</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,7 +1128,7 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33362678390335</v>
+        <v>9060457040721</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,7 +1143,7 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97435521733709</v>
+        <v>50273199294578</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,7 +1158,7 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>58322073619826</v>
+        <v>32076497704302</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,7 +1173,7 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81301065845009</v>
+        <v>50383822256453</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1188,7 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11305001433099</v>
+        <v>46341108106184</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,7 +1203,7 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25201279820511</v>
+        <v>36507992578585</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,7 +1218,7 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1260500611931</v>
+        <v>74992339176596</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,7 +1233,7 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5201118160194</v>
+        <v>6789014374795</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,7 +1248,7 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60286733739477</v>
+        <v>23395598134362</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,7 +1263,7 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96628863670818</v>
+        <v>23370004133429</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1278,7 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10751445393400</v>
+        <v>62161098040289</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1293,7 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22888533259746</v>
+        <v>84088050915918</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1308,7 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39137908960800</v>
+        <v>11080558955189</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,7 +1323,7 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4906014206222</v>
+        <v>96008983356630</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,7 +1338,7 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34274226333755</v>
+        <v>82782559171986</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,7 +1353,7 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95134543263023</v>
+        <v>21000222938171</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,7 +1368,7 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86508450043329</v>
+        <v>97184732496030</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,7 +1383,7 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>87628307347579</v>
+        <v>96126208202273</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,7 +1398,7 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54368366276642</v>
+        <v>92883397360548</v>
       </c>
     </row>
   </sheetData>
